--- a/Software/Input/Test-data-excel.xlsx
+++ b/Software/Input/Test-data-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobia\Dropbox\UMASS\Papers\ongoing\GaDGeT\GaDGeT\GaDGeT\Software\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F088397-8F89-4483-8ACF-C05E163C833F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF046B62-2D7A-4CCD-9C32-B16E3D11701F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-4845" windowWidth="29040" windowHeight="17520" xr2:uid="{A48D99F0-8983-40B6-81B3-5595DEDC0B38}"/>
   </bookViews>
@@ -1332,7 +1332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1407,6 +1407,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1727,7 +1730,7 @@
   <dimension ref="A1:BC385"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A385" sqref="A1:XFD385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -42488,7 +42491,7 @@
       </c>
     </row>
     <row r="286" spans="1:46" ht="13.5" customHeight="1">
-      <c r="A286" s="6">
+      <c r="A286" s="26">
         <v>829</v>
       </c>
       <c r="B286" s="6" t="s">
@@ -42628,7 +42631,7 @@
       </c>
     </row>
     <row r="287" spans="1:46" ht="13.5" customHeight="1">
-      <c r="A287" s="6">
+      <c r="A287" s="26">
         <v>33</v>
       </c>
       <c r="B287" s="6" t="s">
@@ -42768,7 +42771,7 @@
       </c>
     </row>
     <row r="288" spans="1:46" ht="13.5" customHeight="1">
-      <c r="A288" s="6">
+      <c r="A288" s="26">
         <v>107</v>
       </c>
       <c r="B288" s="6" t="s">
@@ -42908,7 +42911,7 @@
       </c>
     </row>
     <row r="289" spans="1:46" ht="13.5" customHeight="1">
-      <c r="A289" s="6">
+      <c r="A289" s="26">
         <v>274</v>
       </c>
       <c r="B289" s="6" t="s">
@@ -43048,7 +43051,7 @@
       </c>
     </row>
     <row r="290" spans="1:46" ht="13.5" customHeight="1">
-      <c r="A290" s="6">
+      <c r="A290" s="26">
         <v>280</v>
       </c>
       <c r="B290" s="6" t="s">
@@ -43188,7 +43191,7 @@
       </c>
     </row>
     <row r="291" spans="1:46" ht="13.5" customHeight="1">
-      <c r="A291" s="6">
+      <c r="A291" s="26">
         <v>281</v>
       </c>
       <c r="B291" s="6" t="s">
@@ -43328,7 +43331,7 @@
       </c>
     </row>
     <row r="292" spans="1:46" ht="13.5" customHeight="1">
-      <c r="A292" s="6">
+      <c r="A292" s="26">
         <v>130</v>
       </c>
       <c r="B292" s="6" t="s">
@@ -43468,7 +43471,7 @@
       </c>
     </row>
     <row r="293" spans="1:46" ht="13.5" customHeight="1">
-      <c r="A293" s="6">
+      <c r="A293" s="26">
         <v>194</v>
       </c>
       <c r="B293" s="6" t="s">
@@ -43608,7 +43611,7 @@
       </c>
     </row>
     <row r="294" spans="1:46" ht="13.5" customHeight="1">
-      <c r="A294" s="6">
+      <c r="A294" s="26">
         <v>29</v>
       </c>
       <c r="B294" s="6" t="s">
@@ -43748,7 +43751,7 @@
       </c>
     </row>
     <row r="295" spans="1:46" ht="13.5" customHeight="1">
-      <c r="A295" s="6">
+      <c r="A295" s="26">
         <v>30</v>
       </c>
       <c r="B295" s="6" t="s">
@@ -43888,7 +43891,7 @@
       </c>
     </row>
     <row r="296" spans="1:46" ht="13.5" customHeight="1">
-      <c r="A296" s="6">
+      <c r="A296" s="26">
         <v>31</v>
       </c>
       <c r="B296" s="6" t="s">
@@ -44028,7 +44031,7 @@
       </c>
     </row>
     <row r="297" spans="1:46" ht="13.5" customHeight="1">
-      <c r="A297" s="6">
+      <c r="A297" s="26">
         <v>32</v>
       </c>
       <c r="B297" s="6" t="s">
@@ -44168,7 +44171,7 @@
       </c>
     </row>
     <row r="298" spans="1:46" ht="13.5" customHeight="1">
-      <c r="A298" s="6">
+      <c r="A298" s="26">
         <v>629</v>
       </c>
       <c r="B298" s="6" t="s">
@@ -44308,7 +44311,7 @@
       </c>
     </row>
     <row r="299" spans="1:46" ht="13.5" customHeight="1">
-      <c r="A299" s="6">
+      <c r="A299" s="26">
         <v>632</v>
       </c>
       <c r="B299" s="6" t="s">
@@ -44448,7 +44451,7 @@
       </c>
     </row>
     <row r="300" spans="1:46" ht="13.5" customHeight="1">
-      <c r="A300" s="6">
+      <c r="A300" s="26">
         <v>633</v>
       </c>
       <c r="B300" s="6" t="s">
@@ -44588,7 +44591,7 @@
       </c>
     </row>
     <row r="301" spans="1:46" ht="13.5" customHeight="1">
-      <c r="A301" s="6">
+      <c r="A301" s="26">
         <v>286</v>
       </c>
       <c r="B301" s="6" t="s">
@@ -44728,7 +44731,7 @@
       </c>
     </row>
     <row r="302" spans="1:46" ht="13.5" customHeight="1">
-      <c r="A302" s="6">
+      <c r="A302" s="26">
         <v>326</v>
       </c>
       <c r="B302" s="6" t="s">
@@ -44868,7 +44871,7 @@
       </c>
     </row>
     <row r="303" spans="1:46" ht="13.5" customHeight="1">
-      <c r="A303" s="6">
+      <c r="A303" s="26">
         <v>2</v>
       </c>
       <c r="B303" s="6" t="s">
@@ -45008,7 +45011,7 @@
       </c>
     </row>
     <row r="304" spans="1:46" ht="13.5" customHeight="1">
-      <c r="A304" s="6">
+      <c r="A304" s="26">
         <v>5</v>
       </c>
       <c r="B304" s="6" t="s">
@@ -45148,7 +45151,7 @@
       </c>
     </row>
     <row r="305" spans="1:46" ht="13.5" customHeight="1">
-      <c r="A305" s="6">
+      <c r="A305" s="26">
         <v>485</v>
       </c>
       <c r="B305" s="6" t="s">
